--- a/middle_data/带宽.xlsx
+++ b/middle_data/带宽.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,11 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,48 +590,275 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>代理商-电信</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>江苏恒杰网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>江苏恒杰</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>182315IDC00096</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>郑州6电信</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CACDNZZCT</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2021/11/1
+2023/1/1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>100G+160G</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>541200</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>需注意202206价格变化。20211101开始计费100G，20230101开始计费160G.颗粒度100M，保底60G</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>90.164825439</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>45291</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>ZZ6CT</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>78</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>代理商-联通</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>王超越</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>江苏恒杰网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>江苏恒杰</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>182315IDC00288</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>郑州5联通</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CACDNZZUN</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>45017</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>40G</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60500</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>颗粒度100M，保底12G</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>12.097080231</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ZZ5UN</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>地点</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>地点</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>SYS统计</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>运营商统计</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>差异率</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>中值</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>结算流量</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>计费单位</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>结算</t>
         </is>

--- a/middle_data/带宽.xlsx
+++ b/middle_data/带宽.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -62,13 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,275 +586,48 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>代理商-电信</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LJ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>河南</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>王超越</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>江苏恒杰网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>江苏恒杰</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>182315IDC00096</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>郑州6电信</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CACDNZZCT</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2021/11/1
-2023/1/1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>100G+160G</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>541200</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>202308</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>需注意202206价格变化。20211101开始计费100G，20230101开始计费160G.颗粒度100M，保底60G</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>90.164825439</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>45291</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>ZZ6CT</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>260</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>78</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>代理商-联通</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LJ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>河南</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>王超越</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>江苏恒杰网络科技有限公司</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>江苏恒杰</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>182315IDC00288</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>郑州5联通</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CACDNZZUN</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>45017</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>40G</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>60500</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>202308</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>颗粒度100M，保底12G</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>12.097080231</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>45017</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>45382</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>ZZ5UN</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>地点</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>地点</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>SYS统计</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>运营商统计</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>差异率</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>中值</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>结算流量</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>计费单位</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>结算</t>
         </is>
